--- a/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58ED0C-D6A7-4D62-B1DD-BC7544757A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34D78E-27BF-493C-BCC2-CF24BC250873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>家园危机</t>
-  </si>
-  <si>
-    <t>10001,10002,10004,10007,10006</t>
   </si>
   <si>
     <t>0,10,15</t>
@@ -187,10 +184,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100;100101@100;100001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>100;100201@100;100001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -212,6 +205,10 @@
   </si>
   <si>
     <t>15,22,25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10002,10003,10004,10005</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +793,7 @@
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -843,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -877,34 +874,32 @@
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -912,19 +907,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -932,19 +927,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -952,19 +947,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -972,19 +967,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34D78E-27BF-493C-BCC2-CF24BC250873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FFBF00-B8FE-49F1-A901-7BED35C44A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -793,7 +793,7 @@
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -880,7 +880,9 @@
       <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8">

--- a/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FFBF00-B8FE-49F1-A901-7BED35C44A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D54C37-9CEE-44F9-B434-36BE08012487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,63 +108,36 @@
     <t>初章</t>
   </si>
   <si>
-    <t>家园危机</t>
-  </si>
-  <si>
     <t>0,10,15</t>
   </si>
   <si>
     <t>第二章</t>
   </si>
   <si>
-    <t>荒漠探险</t>
-  </si>
-  <si>
     <t>20001,20002,20003,20004,20005</t>
   </si>
   <si>
     <t>第三章</t>
   </si>
   <si>
-    <t>冰封世界</t>
-  </si>
-  <si>
-    <t>30001,30003,30004,30005,30006</t>
-  </si>
-  <si>
     <t>30,33,35</t>
   </si>
   <si>
     <t>第四章</t>
   </si>
   <si>
-    <t>暮色危境</t>
-  </si>
-  <si>
-    <t>40001,40003,40004,40006,40007</t>
-  </si>
-  <si>
     <t>40,43,45</t>
   </si>
   <si>
     <t>第五章</t>
   </si>
   <si>
-    <t>黑暗陨落</t>
-  </si>
-  <si>
-    <t>50001,50002,50004,50006,50007</t>
-  </si>
-  <si>
     <t>50,53,55</t>
   </si>
   <si>
     <t>终章</t>
   </si>
   <si>
-    <t>黎明之光</t>
-  </si>
-  <si>
     <t>60,62,65</t>
   </si>
   <si>
@@ -209,6 +182,42 @@
   </si>
   <si>
     <t>10001,10002,10003,10004,10005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛兰森林</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城遗迹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下魔窟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵国度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>影月之地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠圣地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001,30002,30003,30004,30005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,40002,40003,40004,40005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001,50002,50003,50004,50005</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -430,16 +439,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -840,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -860,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -871,17 +883,17 @@
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>37</v>
+      <c r="H6" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -889,19 +901,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>37</v>
+      <c r="G7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -909,19 +921,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -929,19 +941,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -949,19 +961,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -969,19 +981,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D54C37-9CEE-44F9-B434-36BE08012487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963CAC85-6C54-43F8-B6E6-AF7D463AEE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,10 +141,6 @@
     <t>60,62,65</t>
   </si>
   <si>
-    <t>60001,60002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -218,6 +214,10 @@
   </si>
   <si>
     <t>50001,50002,50003,50004,50005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,50004</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -872,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -884,16 +884,16 @@
         <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,16 +904,16 @@
         <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -924,16 +924,16 @@
         <v>16</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -944,16 +944,16 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -964,16 +964,16 @@
         <v>20</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -984,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
@@ -1,39 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963CAC85-6C54-43F8-B6E6-AF7D463AEE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{4AE5065B-D0CC-4FE5-9F20-2DA759B1B601}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,9 +46,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,18 +59,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -84,6 +87,12 @@
     <t>开启等级</t>
   </si>
   <si>
+    <t>神秘之门地图ID</t>
+  </si>
+  <si>
+    <t>ui偏移x,y</t>
+  </si>
+  <si>
     <t>ChapterName</t>
   </si>
   <si>
@@ -96,6 +105,12 @@
     <t>OpenLevel</t>
   </si>
   <si>
+    <t>ShenMiEnterID</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -108,124 +123,119 @@
     <t>初章</t>
   </si>
   <si>
+    <t>洛兰森林</t>
+  </si>
+  <si>
+    <t>10001,10002,10003,10004,10005</t>
+  </si>
+  <si>
     <t>0,10,15</t>
   </si>
   <si>
+    <t>100;100201@100;100001</t>
+  </si>
+  <si>
+    <t>-250,10</t>
+  </si>
+  <si>
     <t>第二章</t>
   </si>
   <si>
+    <t>古城遗迹</t>
+  </si>
+  <si>
     <t>20001,20002,20003,20004,20005</t>
   </si>
   <si>
+    <t>15,22,25</t>
+  </si>
+  <si>
+    <t>-250,30</t>
+  </si>
+  <si>
     <t>第三章</t>
   </si>
   <si>
+    <t>地下魔窟</t>
+  </si>
+  <si>
+    <t>30001,30002,30003,30004,30005</t>
+  </si>
+  <si>
     <t>30,33,35</t>
   </si>
   <si>
+    <t>100;100301@100;100001</t>
+  </si>
+  <si>
+    <t>-250,50</t>
+  </si>
+  <si>
     <t>第四章</t>
   </si>
   <si>
+    <t>精灵国度</t>
+  </si>
+  <si>
+    <t>40001,40002,40003,40004,40005</t>
+  </si>
+  <si>
     <t>40,43,45</t>
   </si>
   <si>
+    <t>100;100401@100;100001</t>
+  </si>
+  <si>
+    <t>-250,70</t>
+  </si>
+  <si>
     <t>第五章</t>
   </si>
   <si>
+    <t>影月之地</t>
+  </si>
+  <si>
+    <t>50001,50002,50003,50004,50005</t>
+  </si>
+  <si>
     <t>50,53,55</t>
   </si>
   <si>
+    <t>100;100501@100;100001</t>
+  </si>
+  <si>
+    <t>-250,90</t>
+  </si>
+  <si>
     <t>终章</t>
   </si>
   <si>
+    <t>沙漠圣地</t>
+  </si>
+  <si>
+    <t>50003,50004</t>
+  </si>
+  <si>
     <t>60,62,65</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘之门地图ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShenMiEnterID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;100201@100;100001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;100301@100;100001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;100401@100;100001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;100501@100;100001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>100;100601@100;100001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,22,25</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10002,10003,10004,10005</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛兰森林</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>古城遗迹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下魔窟</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵国度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>影月之地</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠圣地</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>30001,30002,30003,30004,30005</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>40001,40002,40003,40004,40005</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001,50002,50003,50004,50005</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>50003,50004</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-250,110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +247,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -246,57 +255,179 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,12 +448,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -403,19 +720,261 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -430,43 +989,81 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -503,13 +1100,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:F5" totalsRowShown="0">
-  <autoFilter ref="C4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:F5" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:F5" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RandomArea"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="ChapterName"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="4" name="RandomArea"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -796,26 +1393,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="8" width="33.625" customWidth="1"/>
+    <col min="6" max="9" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -832,186 +1429,212 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C8" s="6">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>29</v>
+      <c r="I9" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C10" s="8">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>30</v>
+      <c r="H10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C11" s="8">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D4060D-4734-4C02-8083-A7AC3551C3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -47,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,18 +54,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -135,9 +130,6 @@
     <t>100;100201@100;100001</t>
   </si>
   <si>
-    <t>-250,10</t>
-  </si>
-  <si>
     <t>第二章</t>
   </si>
   <si>
@@ -150,9 +142,6 @@
     <t>15,22,25</t>
   </si>
   <si>
-    <t>-250,30</t>
-  </si>
-  <si>
     <t>第三章</t>
   </si>
   <si>
@@ -168,9 +157,6 @@
     <t>100;100301@100;100001</t>
   </si>
   <si>
-    <t>-250,50</t>
-  </si>
-  <si>
     <t>第四章</t>
   </si>
   <si>
@@ -186,9 +172,6 @@
     <t>100;100401@100;100001</t>
   </si>
   <si>
-    <t>-250,70</t>
-  </si>
-  <si>
     <t>第五章</t>
   </si>
   <si>
@@ -204,9 +187,6 @@
     <t>100;100501@100;100001</t>
   </si>
   <si>
-    <t>-250,90</t>
-  </si>
-  <si>
     <t>终章</t>
   </si>
   <si>
@@ -223,19 +203,45 @@
   </si>
   <si>
     <t>-250,110</t>
+  </si>
+  <si>
+    <t>-442,-21</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-355,10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-332,-39</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-349,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-307,-79</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +253,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,163 +262,30 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -419,15 +293,24 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,198 +331,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -720,261 +417,19 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1004,66 +459,25 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1100,13 +514,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:F5" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:F5" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:F5" totalsRowShown="0">
+  <autoFilter ref="C4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="ChapterName"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="4" name="RandomArea"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RandomArea"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1393,26 +807,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="9" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="3" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1434,8 +848,11 @@
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="4" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1457,8 +874,11 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J4" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="5" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1480,8 +900,11 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="J5" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="6" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>1</v>
       </c>
@@ -1501,140 +924,176 @@
         <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="7" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="8" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="9" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="10" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="8">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="11" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="8">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>50</v>
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="12" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonSectionConfig.xlsx
@@ -1,38 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D4060D-4734-4C02-8083-A7AC3551C3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,7 +47,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,18 +59,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -88,6 +93,9 @@
     <t>ui偏移x,y</t>
   </si>
   <si>
+    <t>缩放</t>
+  </si>
+  <si>
     <t>ChapterName</t>
   </si>
   <si>
@@ -106,6 +114,9 @@
     <t>Offset</t>
   </si>
   <si>
+    <t>Size</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -115,6 +126,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>double[]</t>
+  </si>
+  <si>
     <t>初章</t>
   </si>
   <si>
@@ -130,6 +144,12 @@
     <t>100;100201@100;100001</t>
   </si>
   <si>
+    <t>-355,10</t>
+  </si>
+  <si>
+    <t>0.6,0.6</t>
+  </si>
+  <si>
     <t>第二章</t>
   </si>
   <si>
@@ -142,6 +162,9 @@
     <t>15,22,25</t>
   </si>
   <si>
+    <t>-442,-21</t>
+  </si>
+  <si>
     <t>第三章</t>
   </si>
   <si>
@@ -157,6 +180,9 @@
     <t>100;100301@100;100001</t>
   </si>
   <si>
+    <t>-332,-39</t>
+  </si>
+  <si>
     <t>第四章</t>
   </si>
   <si>
@@ -172,6 +198,12 @@
     <t>100;100401@100;100001</t>
   </si>
   <si>
+    <t>-349,0</t>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
+  </si>
+  <si>
     <t>第五章</t>
   </si>
   <si>
@@ -187,6 +219,9 @@
     <t>100;100501@100;100001</t>
   </si>
   <si>
+    <t>-307,-79</t>
+  </si>
+  <si>
     <t>终章</t>
   </si>
   <si>
@@ -203,45 +238,19 @@
   </si>
   <si>
     <t>-250,110</t>
-  </si>
-  <si>
-    <t>-442,-21</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-355,10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-332,-39</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-349,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-307,-79</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,7 +262,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -262,14 +270,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -277,40 +283,166 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,12 +463,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -417,19 +735,261 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -459,25 +1019,69 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -514,13 +1118,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:F5" totalsRowShown="0">
-  <autoFilter ref="C4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:F5" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C4:F5" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RandomArea"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="ChapterName"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="4" name="RandomArea"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -807,26 +1411,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="9" width="33.625" customWidth="1"/>
+    <col min="6" max="8" width="33.625" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -848,252 +1453,234 @@
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>51</v>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.6</v>
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="I7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.6</v>
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C8" s="6">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.6</v>
-      </c>
     </row>
-    <row r="9" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C10" s="8">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.5</v>
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C11" s="8">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="12" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>